--- a/sql commands.xlsx
+++ b/sql commands.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSC\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859AFC2F-483D-4956-A610-D203D66AD657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDBC47E-C290-4BF4-9726-7B67EF95AA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MariaDB" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>DDL</t>
   </si>
@@ -148,13 +149,306 @@
       </rPr>
       <t xml:space="preserve"> WHERE column_name IN (value 1, value 2, value 3, etc...);</t>
     </r>
+  </si>
+  <si>
+    <t>Create users</t>
+  </si>
+  <si>
+    <t>use mysql</t>
+  </si>
+  <si>
+    <t>CREATE USER 'user'@'localhost' IDENTIFIED BY 'yourpassword';</t>
+  </si>
+  <si>
+    <t>select user from mysql.user;</t>
+  </si>
+  <si>
+    <t>Mairadb list users from root user</t>
+  </si>
+  <si>
+    <t>current working user host</t>
+  </si>
+  <si>
+    <t>select user();</t>
+  </si>
+  <si>
+    <t>to show current working database</t>
+  </si>
+  <si>
+    <t>select database();</t>
+  </si>
+  <si>
+    <t>drop user</t>
+  </si>
+  <si>
+    <t>DROP USER 'user'@'host';</t>
+  </si>
+  <si>
+    <t>delete database if exit &lt;database name&gt;</t>
+  </si>
+  <si>
+    <t>delete database if exit</t>
+  </si>
+  <si>
+    <t>create database if not exit</t>
+  </si>
+  <si>
+    <t>create database if not exit &lt;database name&gt;</t>
+  </si>
+  <si>
+    <t>safe update mode error</t>
+  </si>
+  <si>
+    <t>SET SQL_SAFE_UPDATES = 0;</t>
+  </si>
+  <si>
+    <t>To check version of sql</t>
+  </si>
+  <si>
+    <r>
+      <t>mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> root </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0077AA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"SELECT VERSION();SELECT NOW()"</t>
+    </r>
+  </si>
+  <si>
+    <t>list user in sql</t>
+  </si>
+  <si>
+    <r>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> USER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>DCL</t>
+  </si>
+  <si>
+    <t>GRANT ALL
+  ON *.*
+  TO 'finley'@'localhost'
+  WITH GRANT OPTION;</t>
+  </si>
+  <si>
+    <t>Grant privillage</t>
+  </si>
+  <si>
+    <r>
+      <t>SHOW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0077AA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>GRANTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0077AA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF669900"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'admin'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF669900"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'localhost'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>show grants</t>
+  </si>
+  <si>
+    <t>list all user in sql</t>
+  </si>
+  <si>
+    <t>revoke privillage</t>
+  </si>
+  <si>
+    <t>REVOKE CREATE,DROP
+  ON expenses.*
+  FROM 'custom'@'host47.example.com';</t>
+  </si>
+  <si>
+    <t>alter table &lt;table name&gt; modify &lt;column name&gt; &lt;data type&gt; default NOT NULL</t>
+  </si>
+  <si>
+    <t>default value = NULL</t>
+  </si>
+  <si>
+    <t>default value = NOT NULL</t>
+  </si>
+  <si>
+    <t>alter table &lt;table name&gt; modify &lt;column name&gt; &lt;data type&gt; default NULL</t>
+  </si>
+  <si>
+    <t>AUTO INCREMENT WORKS ONLY FOR PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>alter table &lt;table name&gt; modify &lt;column name&gt; &lt;data type&gt; PRIMARY KEY auto_increment;</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>alter table &lt;table name&gt; modify &lt;column name&gt; &lt;data type&gt; unique;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +466,45 @@
       <sz val="11"/>
       <color rgb="FF0077AA"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0C0D0E"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0077AA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF990055"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF999999"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF669900"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,11 +527,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,9 +818,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -613,8 +954,175 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1"/>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.75">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF8C055-A6DA-4FD2-BBCB-193949B6F937}">
+  <dimension ref="A2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
